--- a/StructureDefinition-profile-Task.xlsx
+++ b/StructureDefinition-profile-Task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8101259-06:00</t>
+    <t>2026-02-09T22:05:43.3768798-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,117 @@
     <t>Task.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Task.extension:doNotPerform</t>
+  </si>
+  <si>
+    <t>doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.doNotPerform|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Task.doNotPerform from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If true indicates that the Task is asking for the specified action to *not* occur.</t>
+  </si>
+  <si>
+    <t>Element `Task.doNotPerform` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Task.extension:requestedPeriod</t>
+  </si>
+  <si>
+    <t>requestedPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Task.requestedPeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the start and/or end of the period of time when completion of the task is desired to take place.</t>
+  </si>
+  <si>
+    <t>Element `Task.requestedPeriod` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+  </si>
+  <si>
+    <t>Task.extension:requestedPerformer</t>
+  </si>
+  <si>
+    <t>requestedPerformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPerformer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Task.requestedPerformer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The kind of participant or specific participant that should perform the task.</t>
+  </si>
+  <si>
+    <t>Element `Task.requestedPerformer` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+  </si>
+  <si>
+    <t>Task.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.performer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Task.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The entity who performed the requested task.</t>
+  </si>
+  <si>
+    <t>Element `Task.performer` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+  </si>
+  <si>
+    <t>Task.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Task.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +540,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -654,23 +741,16 @@
     <t>Task.statusReason.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Task.statusReason.extension:statusReason</t>
+  </si>
+  <si>
+    <t>statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.statusReason|0.0.1-snapshot-3}
@@ -680,6 +760,9 @@
     <t>Cross-version extension for Task.statusReason from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `Task.statusReason` is mapped to FHIR R4 element `Task.statusReason`.</t>
+  </si>
+  <si>
     <t>Task.statusReason.coding</t>
   </si>
   <si>
@@ -1229,6 +1312,9 @@
     <t>Task.restriction.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1327,6 +1413,12 @@
     <t>Task.input.extension</t>
   </si>
   <si>
+    <t>Task.input.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.input.value|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1337,8 +1429,9 @@
     <t>The value of the input parameter as a basic type.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `Task.input.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.input`.
+Element `Task.input.value[x]` is mapped to FHIR R4 element `Task.input.value[x]`.
+Note that the target element context `Task.input.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.input`.</t>
   </si>
   <si>
     <t>Task.input.modifierExtension</t>
@@ -1394,6 +1487,9 @@
     <t>Task.output.extension</t>
   </si>
   <si>
+    <t>Task.output.extension:value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.output.value|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1402,6 +1498,11 @@
   </si>
   <si>
     <t>The value of the Output parameter as a basic type.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `Task.output.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.output`.
+Element `Task.output.value[x]` is mapped to FHIR R4 element `Task.output.value[x]`.
+Note that the target element context `Task.output.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.output`.</t>
   </si>
   <si>
     <t>Task.output.modifierExtension</t>
@@ -1735,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1744,9 +1845,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.37109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2710,7 +2811,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2729,17 +2830,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2776,16 +2875,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2806,7 +2903,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2820,18 +2917,20 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2843,20 +2942,18 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2904,7 +3001,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2913,7 +3010,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2922,7 +3019,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2933,12 +3030,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2947,7 +3046,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2959,15 +3058,17 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -3016,7 +3117,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3025,19 +3126,19 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3045,12 +3146,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3059,7 +3162,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3068,21 +3171,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3130,25 +3233,25 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3162,9 +3265,11 @@
         <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3173,7 +3278,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3182,21 +3287,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3244,25 +3349,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3273,14 +3378,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3293,22 +3398,26 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3356,7 +3465,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3368,13 +3477,13 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3385,10 +3494,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3399,7 +3508,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3408,21 +3517,19 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3470,13 +3577,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3485,13 +3592,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3499,10 +3606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3513,7 +3620,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3525,19 +3632,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3586,13 +3691,13 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3601,10 +3706,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3615,10 +3720,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3626,7 +3731,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -3635,23 +3740,23 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3676,13 +3781,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3700,10 +3805,10 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>87</v>
@@ -3718,10 +3823,10 @@
         <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3729,10 +3834,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3743,7 +3848,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3755,17 +3860,15 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3790,10 +3893,10 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3814,13 +3917,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3829,10 +3932,10 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3843,10 +3946,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3866,19 +3969,21 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3926,7 +4031,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3938,13 +4043,13 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3955,10 +4060,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3966,7 +4071,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3978,19 +4083,23 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4026,19 +4135,19 @@
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4050,13 +4159,13 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4067,10 +4176,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4078,7 +4187,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -4087,24 +4196,24 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4128,13 +4237,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4152,28 +4261,28 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4181,10 +4290,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4195,7 +4304,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4207,20 +4316,18 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4244,10 +4351,10 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4268,13 +4375,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4286,21 +4393,21 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4320,23 +4427,19 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4384,7 +4487,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4396,27 +4499,27 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4427,7 +4530,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4436,21 +4539,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4474,10 +4575,10 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -4486,37 +4587,37 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4527,18 +4628,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4550,19 +4653,19 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4588,13 +4691,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4612,28 +4715,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4641,10 +4744,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4655,7 +4758,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4664,27 +4767,27 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q26" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4704,13 +4807,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4734,7 +4837,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4743,24 +4846,24 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4783,18 +4886,20 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4818,13 +4923,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4842,7 +4947,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4857,24 +4962,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4897,16 +5002,18 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4930,10 +5037,10 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4954,7 +5061,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4972,7 +5079,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4983,10 +5090,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4994,7 +5101,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -5009,20 +5116,18 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5046,13 +5151,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5070,10 +5175,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -5085,13 +5190,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5099,14 +5204,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5122,25 +5227,27 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5160,13 +5267,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5184,7 +5291,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5199,13 +5306,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5213,10 +5320,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5239,18 +5346,18 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5274,13 +5381,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5298,7 +5405,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5353,13 +5460,13 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5425,13 +5532,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5439,14 +5546,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5462,20 +5569,22 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5524,7 +5633,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5533,19 +5642,19 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5553,14 +5662,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5579,17 +5688,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5638,7 +5747,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5647,19 +5756,19 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5667,10 +5776,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5693,17 +5802,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5752,7 +5861,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5767,13 +5876,13 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5781,10 +5890,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5795,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5804,21 +5913,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5842,13 +5949,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5866,13 +5973,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5881,13 +5988,13 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5895,14 +6002,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5918,22 +6025,20 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5982,7 +6087,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5991,19 +6096,19 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6011,14 +6116,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6037,17 +6142,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6096,7 +6201,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6105,19 +6210,19 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6125,10 +6230,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6148,21 +6253,21 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6186,10 +6291,10 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6210,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6225,24 +6330,24 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6253,7 +6358,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6265,18 +6370,18 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6300,13 +6405,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6324,13 +6429,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6339,13 +6444,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6353,21 +6458,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6376,19 +6481,23 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6436,13 +6545,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6451,24 +6560,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6479,7 +6588,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6488,19 +6597,21 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6548,13 +6659,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6563,13 +6674,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6577,21 +6688,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6603,16 +6714,16 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6638,10 +6749,10 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6662,13 +6773,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6677,16 +6788,16 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -6717,18 +6828,18 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6791,13 +6902,13 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6805,10 +6916,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6819,7 +6930,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6831,13 +6942,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>202</v>
+        <v>391</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6888,43 +6999,43 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>204</v>
+        <v>393</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6943,17 +7054,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7002,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7014,13 +7123,13 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7031,14 +7140,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7051,26 +7160,24 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7118,7 +7225,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7130,13 +7237,13 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>130</v>
+        <v>408</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7147,10 +7254,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7173,17 +7280,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7232,7 +7339,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7250,7 +7357,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7261,10 +7368,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7287,20 +7394,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7348,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7360,13 +7463,13 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7377,14 +7480,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7403,15 +7506,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7460,7 +7565,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>409</v>
+        <v>234</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7472,13 +7577,13 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7489,14 +7594,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7509,23 +7614,25 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>418</v>
+        <v>169</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7574,7 +7681,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7586,13 +7693,13 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>419</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7603,10 +7710,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7629,16 +7736,18 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>201</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>202</v>
+        <v>427</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7686,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7698,13 +7807,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>204</v>
+        <v>429</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7715,10 +7824,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7726,11 +7835,11 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7741,16 +7850,20 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>206</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7786,35 +7899,37 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>211</v>
+        <v>430</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7825,10 +7940,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7836,10 +7951,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7851,13 +7966,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7908,7 +8023,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7917,16 +8032,16 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7937,14 +8052,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7957,25 +8072,23 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>142</v>
+        <v>445</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8024,7 +8137,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8036,13 +8149,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>130</v>
+        <v>446</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8053,18 +8166,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8079,20 +8192,16 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>228</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8116,10 +8225,10 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8140,10 +8249,10 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>427</v>
+        <v>230</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>87</v>
@@ -8152,13 +8261,13 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8169,10 +8278,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8183,7 +8292,7 @@
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8195,13 +8304,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>133</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>424</v>
+        <v>134</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8240,37 +8349,35 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>434</v>
+        <v>234</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8281,21 +8388,23 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8307,18 +8416,18 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8366,7 +8475,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>437</v>
+        <v>234</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8375,16 +8484,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8395,42 +8504,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>201</v>
+        <v>421</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8478,25 +8591,25 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>203</v>
+        <v>423</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8507,21 +8620,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8533,16 +8646,20 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>206</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8566,10 +8683,10 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8578,35 +8695,37 @@
         <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>211</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8617,10 +8736,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8643,13 +8762,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8700,25 +8819,25 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8729,14 +8848,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8749,25 +8868,23 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>142</v>
+        <v>469</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8816,7 +8933,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8828,13 +8945,13 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>130</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8845,18 +8962,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -8871,18 +8988,16 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>228</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>229</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>450</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8906,10 +9021,10 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -8930,10 +9045,10 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>447</v>
+        <v>230</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>87</v>
@@ -8942,13 +9057,13 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>419</v>
+        <v>231</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8959,10 +9074,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8973,7 +9088,7 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -8985,18 +9100,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>435</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>133</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>445</v>
+        <v>134</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>454</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9032,42 +9145,500 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>452</v>
+        <v>234</v>
       </c>
       <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AH64" t="s" s="2">
+      <c r="G65" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Task.xlsx
+++ b/StructureDefinition-profile-Task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3768798-06:00</t>
+    <t>2026-02-17T14:42:26.9317037-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>If true indicates that the Task is asking for the specified action to *not* occur.</t>
   </si>
   <si>
-    <t>Element `Task.doNotPerform` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+    <t>Element `Task.doNotPerform` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -485,7 +485,7 @@
     <t>Indicates the start and/or end of the period of time when completion of the task is desired to take place.</t>
   </si>
   <si>
-    <t>Element `Task.requestedPeriod` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+    <t>Element `Task.requestedPeriod` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
   </si>
   <si>
     <t>Task.extension:requestedPerformer</t>
@@ -504,7 +504,7 @@
     <t>The kind of participant or specific participant that should perform the task.</t>
   </si>
   <si>
-    <t>Element `Task.requestedPerformer` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+    <t>Element `Task.requestedPerformer` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
   </si>
   <si>
     <t>Task.extension:performer</t>
@@ -523,7 +523,7 @@
     <t>The entity who performed the requested task.</t>
   </si>
   <si>
-    <t>Element `Task.performer` is will have a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+    <t>Element `Task.performer` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
   </si>
   <si>
     <t>Task.modifierExtension</t>
@@ -760,7 +760,7 @@
     <t>Cross-version extension for Task.statusReason from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Task.statusReason` is mapped to FHIR R4 element `Task.statusReason`.</t>
+    <t>Element `Task.statusReason` has is mapped to FHIR R4 element `Task.statusReason`, but has no comparisons.</t>
   </si>
   <si>
     <t>Task.statusReason.coding</t>
@@ -1312,10 +1312,20 @@
     <t>Task.restriction.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Task.restriction.extension:restriction</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.restriction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Task.restriction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Task.restriction` has is mapped to FHIR R4 element `Task.restriction`, but has no comparisons.</t>
   </si>
   <si>
     <t>Task.restriction.modifierExtension</t>
@@ -1413,25 +1423,20 @@
     <t>Task.input.extension</t>
   </si>
   <si>
-    <t>Task.input.extension:value</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.input.value|0.0.1-snapshot-3}
+    <t>Task.input.extension:input</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.input|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.input.value[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The value of the input parameter as a basic type.</t>
-  </si>
-  <si>
-    <t>Note that the target element context `Task.input.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.input`.
-Element `Task.input.value[x]` is mapped to FHIR R4 element `Task.input.value[x]`.
-Note that the target element context `Task.input.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.input`.</t>
+    <t>Cross-version extension for Task.input from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Task.input` has is mapped to FHIR R4 element `Task.input`, but has no comparisons.</t>
   </si>
   <si>
     <t>Task.input.modifierExtension</t>
@@ -1469,6 +1474,9 @@
     <t>Content to use in performing the task</t>
   </si>
   <si>
+    <t>The value of the input parameter as a basic type.</t>
+  </si>
+  <si>
     <t>Task.output</t>
   </si>
   <si>
@@ -1487,46 +1495,47 @@
     <t>Task.output.extension</t>
   </si>
   <si>
-    <t>Task.output.extension:value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.output.value|0.0.1-snapshot-3}
+    <t>Task.output.extension:output</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.output|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.output.value[x] from R5 for use in FHIR R4</t>
+    <t>Cross-version extension for Task.output from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Task.output` has is mapped to FHIR R4 element `Task.output`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Task.output.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.output.type</t>
+  </si>
+  <si>
+    <t>Label for output</t>
+  </si>
+  <si>
+    <t>The name of the Output parameter.</t>
+  </si>
+  <si>
+    <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
+  </si>
+  <si>
+    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
+  </si>
+  <si>
+    <t>Task.output.value[x]</t>
+  </si>
+  <si>
+    <t>Result of output</t>
   </si>
   <si>
     <t>The value of the Output parameter as a basic type.</t>
-  </si>
-  <si>
-    <t>Note that the target element context `Task.output.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.output`.
-Element `Task.output.value[x]` is mapped to FHIR R4 element `Task.output.value[x]`.
-Note that the target element context `Task.output.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.output`.</t>
-  </si>
-  <si>
-    <t>Task.output.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.output.type</t>
-  </si>
-  <si>
-    <t>Label for output</t>
-  </si>
-  <si>
-    <t>The name of the Output parameter.</t>
-  </si>
-  <si>
-    <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
-  </si>
-  <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
-  </si>
-  <si>
-    <t>Task.output.value[x]</t>
-  </si>
-  <si>
-    <t>Result of output</t>
   </si>
   <si>
     <t>Task outputs can take any form.</t>
@@ -1836,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7487,7 +7496,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7509,14 +7518,12 @@
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7553,16 +7560,14 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>234</v>
@@ -7583,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7594,46 +7599,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="D51" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7681,7 +7686,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>234</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7690,7 +7695,7 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>138</v>
@@ -7699,7 +7704,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7710,43 +7715,45 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7795,25 +7802,25 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>429</v>
+        <v>130</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7824,10 +7831,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7850,19 +7857,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7911,7 +7916,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7929,7 +7934,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7940,10 +7945,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7954,7 +7959,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7966,16 +7971,20 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8023,13 +8032,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -8041,7 +8050,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8052,14 +8061,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8078,18 +8087,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8137,7 +8144,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8155,7 +8162,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8166,21 +8173,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8192,16 +8199,18 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>227</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>229</v>
+        <v>447</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8249,25 +8258,25 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>231</v>
+        <v>449</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8278,10 +8287,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8289,11 +8298,11 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8304,13 +8313,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8349,35 +8358,37 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8388,23 +8399,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8416,17 +8425,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>451</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>452</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8463,16 +8470,14 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>234</v>
@@ -8484,7 +8489,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>138</v>
@@ -8504,14 +8509,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D59" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8524,26 +8531,24 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8591,7 +8596,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>423</v>
+        <v>234</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8600,7 +8605,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>138</v>
@@ -8609,7 +8614,7 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8620,45 +8625,45 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>460</v>
+        <v>168</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>461</v>
+        <v>169</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8683,10 +8688,10 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8707,25 +8712,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>446</v>
+        <v>130</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8736,14 +8741,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8762,16 +8767,20 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>464</v>
+        <v>219</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8795,10 +8804,10 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8819,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>87</v>
@@ -8837,7 +8846,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8848,10 +8857,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8859,10 +8868,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8874,7 +8883,7 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>467</v>
@@ -8883,9 +8892,7 @@
         <v>468</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8933,13 +8940,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8951,7 +8958,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8962,10 +8969,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8976,7 +8983,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8988,16 +8995,18 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>227</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>228</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>229</v>
+        <v>471</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9045,25 +9054,25 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>230</v>
+        <v>469</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>231</v>
+        <v>449</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -9074,10 +9083,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9085,11 +9094,11 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9100,13 +9109,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9145,35 +9154,37 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9184,23 +9195,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9212,17 +9221,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>473</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9259,16 +9266,14 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>234</v>
@@ -9280,7 +9285,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>138</v>
@@ -9300,14 +9305,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="D66" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9320,26 +9327,24 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>477</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9387,7 +9392,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>423</v>
+        <v>234</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9396,7 +9401,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>138</v>
@@ -9405,7 +9410,7 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9416,43 +9421,45 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>481</v>
+        <v>169</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9477,10 +9484,10 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>482</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9501,25 +9508,25 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>446</v>
+        <v>130</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9530,14 +9537,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9556,17 +9563,17 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>464</v>
+        <v>219</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9591,10 +9598,10 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9615,7 +9622,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>87</v>
@@ -9633,12 +9640,126 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Task.xlsx
+++ b/StructureDefinition-profile-Task.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9317037-06:00</t>
+    <t>2026-02-20T11:59:20.96861-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,84 +446,85 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Task.extension:doNotPerform</t>
-  </si>
-  <si>
-    <t>doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.doNotPerform|0.0.1-snapshot-3}
+    <t>Task.extension:requestedPeriod</t>
+  </si>
+  <si>
+    <t>requestedPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPeriod}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.doNotPerform from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>If true indicates that the Task is asking for the specified action to *not* occur.</t>
-  </si>
-  <si>
-    <t>Element `Task.doNotPerform` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+    <t>Cross-version extension for Task.requestedPeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the start and/or end of the period of time when completion of the task is desired to take place.</t>
+  </si>
+  <si>
+    <t>Element `Task.requestedPeriod` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Task.extension:requestedPeriod</t>
-  </si>
-  <si>
-    <t>requestedPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPeriod|0.0.1-snapshot-3}
+    <t>Task.extension:requestedPerformer</t>
+  </si>
+  <si>
+    <t>requestedPerformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPerformer}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.requestedPeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the start and/or end of the period of time when completion of the task is desired to take place.</t>
-  </si>
-  <si>
-    <t>Element `Task.requestedPeriod` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
-  </si>
-  <si>
-    <t>Task.extension:requestedPerformer</t>
-  </si>
-  <si>
-    <t>requestedPerformer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPerformer|0.0.1-snapshot-3}
+    <t>Cross-version extension for Task.requestedPerformer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The kind of participant or specific participant that should perform the task.</t>
+  </si>
+  <si>
+    <t>Element `Task.requestedPerformer` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+  </si>
+  <si>
+    <t>Task.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.performer}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.requestedPerformer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The kind of participant or specific participant that should perform the task.</t>
-  </si>
-  <si>
-    <t>Element `Task.requestedPerformer` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
-  </si>
-  <si>
-    <t>Task.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.performer|0.0.1-snapshot-3}
+    <t>Cross-version extension for Task.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The entity who performed the requested task.</t>
+  </si>
+  <si>
+    <t>Element `Task.performer` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+  </si>
+  <si>
+    <t>Task.extension:doNotPerform</t>
+  </si>
+  <si>
+    <t>doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {request-doNotPerform}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The entity who performed the requested task.</t>
-  </si>
-  <si>
-    <t>Element `Task.performer` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
+    <t>Cross-version extension for Task.doNotPerform from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If true indicates that the request is asking for the specified action to not occur.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Task.doNotPerform`: `http://hl7.org/fhir/StructureDefinition/request-doNotPerform`.
+Element `Task.doNotPerform` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
   </si>
   <si>
     <t>Task.modifierExtension</t>
@@ -753,7 +754,7 @@
     <t>statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.statusReason|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.statusReason}
 </t>
   </si>
   <si>
@@ -1318,7 +1319,7 @@
     <t>restriction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.restriction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.restriction}
 </t>
   </si>
   <si>
@@ -1429,7 +1430,7 @@
     <t>input</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.input|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.input}
 </t>
   </si>
   <si>
@@ -1501,7 +1502,7 @@
     <t>output</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.output|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.output}
 </t>
   </si>
   <si>
@@ -2945,7 +2946,7 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
@@ -3055,7 +3056,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3287,13 +3288,13 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>77</v>
@@ -3367,7 +3368,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>138</v>

--- a/StructureDefinition-profile-Task.xlsx
+++ b/StructureDefinition-profile-Task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.96861-06:00</t>
+    <t>2026-02-21T13:36:54.373179-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>requestedPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPeriod}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPeriod|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>requestedPerformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPerformer}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.requestedPerformer|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.performer}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.performer|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -505,26 +505,6 @@
   </si>
   <si>
     <t>Element `Task.performer` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
-  </si>
-  <si>
-    <t>Task.extension:doNotPerform</t>
-  </si>
-  <si>
-    <t>doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {request-doNotPerform}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Task.doNotPerform from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>If true indicates that the request is asking for the specified action to not occur.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Task.doNotPerform`: `http://hl7.org/fhir/StructureDefinition/request-doNotPerform`.
-Element `Task.doNotPerform` has a context of Task based on following the parent source element upwards and mapping to `Task`.</t>
   </si>
   <si>
     <t>Task.modifierExtension</t>
@@ -754,14 +734,14 @@
     <t>statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.statusReason}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.statusReason|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Task.statusReason from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Task.statusReason` has is mapped to FHIR R4 element `Task.statusReason`, but has no comparisons.</t>
+    <t>Element `Task.statusReason` is mapped to FHIR R4 element `Task.statusReason` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Task.statusReason.coding</t>
@@ -1313,20 +1293,10 @@
     <t>Task.restriction.extension</t>
   </si>
   <si>
-    <t>Task.restriction.extension:restriction</t>
-  </si>
-  <si>
-    <t>restriction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.restriction}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Task.restriction from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Task.restriction` has is mapped to FHIR R4 element `Task.restriction`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Task.restriction.modifierExtension</t>
@@ -1424,20 +1394,25 @@
     <t>Task.input.extension</t>
   </si>
   <si>
-    <t>Task.input.extension:input</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.input}
+    <t>Task.input.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.input.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.input from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Task.input` has is mapped to FHIR R4 element `Task.input`, but has no comparisons.</t>
+    <t>Cross-version extension for Task.input.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The value of the input parameter as a basic type.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `Task.input.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.input`.
+Element `Task.input.value[x]` is mapped to FHIR R4 element `Task.input.value[x]` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note that the target element context `Task.input.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.input`.</t>
   </si>
   <si>
     <t>Task.input.modifierExtension</t>
@@ -1475,9 +1450,6 @@
     <t>Content to use in performing the task</t>
   </si>
   <si>
-    <t>The value of the input parameter as a basic type.</t>
-  </si>
-  <si>
     <t>Task.output</t>
   </si>
   <si>
@@ -1496,20 +1468,22 @@
     <t>Task.output.extension</t>
   </si>
   <si>
-    <t>Task.output.extension:output</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.output}
+    <t>Task.output.extension:value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Task.output.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Task.output from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Task.output` has is mapped to FHIR R4 element `Task.output`, but has no comparisons.</t>
+    <t>Cross-version extension for Task.output.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The value of the Output parameter as a basic type.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `Task.output.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.output`.
+Element `Task.output.value[x]` is mapped to FHIR R4 element `Task.output.value[x]` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note that the target element context `Task.output.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Task.output`.</t>
   </si>
   <si>
     <t>Task.output.modifierExtension</t>
@@ -1534,9 +1508,6 @@
   </si>
   <si>
     <t>Result of output</t>
-  </si>
-  <si>
-    <t>The value of the Output parameter as a basic type.</t>
   </si>
   <si>
     <t>Task outputs can take any form.</t>
@@ -1846,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3275,20 +3246,18 @@
         <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3300,18 +3269,20 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3359,7 +3330,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3377,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3388,14 +3359,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3408,26 +3379,22 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3475,7 +3442,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3487,16 +3454,16 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3504,10 +3471,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3518,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3527,19 +3494,21 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3587,13 +3556,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3602,13 +3571,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3616,10 +3585,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3642,17 +3611,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3701,7 +3670,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3716,10 +3685,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3730,10 +3699,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3744,7 +3713,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3756,18 +3725,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>186</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3815,13 +3782,13 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3830,10 +3797,10 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3858,7 +3825,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3870,16 +3837,18 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3933,7 +3902,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3970,7 +3939,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3982,17 +3951,19 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4047,7 +4018,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4056,10 +4027,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4070,10 +4041,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4081,32 +4052,30 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>205</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>206</v>
       </c>
@@ -4133,13 +4102,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4157,13 +4126,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -4172,13 +4141,13 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4186,10 +4155,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4197,7 +4166,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -4206,24 +4175,24 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4247,13 +4216,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4271,10 +4240,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>87</v>
@@ -4286,13 +4255,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4300,10 +4269,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4323,20 +4292,18 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4361,31 +4328,31 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4397,7 +4364,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -4428,7 +4395,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4440,13 +4407,13 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4485,37 +4452,37 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4526,12 +4493,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4540,7 +4509,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4552,15 +4521,17 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4597,19 +4568,19 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4638,14 +4609,12 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4654,7 +4623,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4663,21 +4632,23 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4725,7 +4696,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4737,27 +4708,27 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4768,7 +4739,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4780,19 +4751,19 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4841,13 +4812,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4859,21 +4830,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4896,19 +4867,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4933,10 +4902,10 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
@@ -4957,7 +4926,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4975,13 +4944,13 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4997,7 +4966,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -5012,7 +4981,7 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>258</v>
@@ -5020,10 +4989,10 @@
       <c r="M28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>260</v>
       </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5047,13 +5016,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
         <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5074,7 +5043,7 @@
         <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -5086,13 +5055,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5100,10 +5069,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5111,7 +5080,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -5123,72 +5092,74 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -5200,13 +5171,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5214,10 +5185,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5237,71 +5208,69 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q30" t="s" s="2">
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5316,13 +5285,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5330,10 +5299,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5356,17 +5325,15 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5391,13 +5358,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5415,7 +5382,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5430,13 +5397,13 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5444,10 +5411,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5470,16 +5437,20 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5527,7 +5498,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5548,7 +5519,7 @@
         <v>294</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5563,7 +5534,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5582,17 +5553,15 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
         <v>298</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>299</v>
       </c>
@@ -5658,13 +5627,13 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5672,14 +5641,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5698,17 +5667,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5757,7 +5726,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5772,13 +5741,13 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5786,10 +5755,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5812,18 +5781,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5871,7 +5838,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5886,13 +5853,13 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5900,14 +5867,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5923,19 +5890,21 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5983,7 +5952,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5992,19 +5961,19 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6012,14 +5981,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6035,20 +6004,20 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6097,7 +6066,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6106,19 +6075,19 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6133,7 +6102,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6152,7 +6121,7 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>336</v>
@@ -6220,19 +6189,19 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6240,10 +6209,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6254,7 +6223,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6263,20 +6232,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6301,13 +6270,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6325,13 +6294,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -6340,13 +6309,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6354,21 +6323,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6377,20 +6346,22 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6415,13 +6386,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6439,13 +6410,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6454,13 +6425,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6468,14 +6439,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6494,19 +6465,17 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6555,7 +6524,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6570,13 +6539,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6584,10 +6553,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6607,21 +6576,21 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
         <v>370</v>
       </c>
+      <c r="N42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6645,10 +6614,10 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6669,7 +6638,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6684,24 +6653,24 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6724,16 +6693,16 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6759,10 +6728,10 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6783,7 +6752,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6798,24 +6767,24 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6826,7 +6795,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6838,17 +6807,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N44" t="s" s="2">
         <v>385</v>
       </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6897,13 +6864,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6918,18 +6885,18 @@
         <v>387</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6952,13 +6919,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7009,7 +6976,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7024,16 +6991,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -7045,7 +7012,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7064,15 +7031,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7136,10 +7105,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7150,21 +7119,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7176,18 +7145,18 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7235,13 +7204,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7250,7 +7219,7 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>408</v>
@@ -7290,18 +7259,16 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>410</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>412</v>
+        <v>223</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>413</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7349,7 +7316,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>409</v>
+        <v>224</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7361,13 +7328,13 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7378,21 +7345,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7404,15 +7371,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>228</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7461,25 +7430,25 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7490,14 +7459,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7510,22 +7479,26 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7561,17 +7534,19 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>234</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7589,7 +7564,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7600,14 +7575,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C51" t="s" s="2">
         <v>418</v>
       </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7634,12 +7607,12 @@
         <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="O51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7687,25 +7660,25 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7716,45 +7689,45 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>168</v>
+        <v>427</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>169</v>
+        <v>428</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7803,25 +7776,25 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>429</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7832,10 +7805,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7846,7 +7819,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7858,18 +7831,16 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7917,13 +7888,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7935,7 +7906,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7946,21 +7917,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7972,19 +7943,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8033,13 +8002,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -8051,7 +8020,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8062,10 +8031,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8076,7 +8045,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8088,13 +8057,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>440</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>441</v>
+        <v>222</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>442</v>
+        <v>223</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8145,25 +8114,25 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>439</v>
+        <v>224</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>443</v>
+        <v>225</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8174,18 +8143,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8200,18 +8169,16 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>446</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>447</v>
+        <v>134</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8247,19 +8214,17 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>444</v>
+        <v>228</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8271,13 +8236,13 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8288,18 +8253,20 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>87</v>
@@ -8314,15 +8281,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8371,25 +8340,25 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8400,14 +8369,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8420,22 +8389,26 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8471,17 +8444,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>234</v>
+        <v>417</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8499,7 +8474,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8510,23 +8485,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8538,18 +8511,20 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8573,10 +8548,10 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8597,25 +8572,25 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>234</v>
+        <v>450</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8633,39 +8608,35 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8713,25 +8684,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8742,21 +8713,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8768,17 +8739,15 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>219</v>
+        <v>404</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N61" t="s" s="2">
         <v>462</v>
       </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>463</v>
       </c>
@@ -8805,10 +8774,10 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8829,13 +8798,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8847,7 +8816,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8858,10 +8827,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8869,7 +8838,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
@@ -8884,13 +8853,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>466</v>
+        <v>221</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>467</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>468</v>
+        <v>223</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8941,10 +8910,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>87</v>
@@ -8953,13 +8922,13 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8970,10 +8939,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8981,7 +8950,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8996,18 +8965,16 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>470</v>
+        <v>133</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>471</v>
+        <v>134</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>472</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9043,19 +9010,17 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>469</v>
+        <v>228</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9067,13 +9032,13 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -9084,18 +9049,20 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>87</v>
@@ -9110,15 +9077,17 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>227</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>228</v>
+        <v>468</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9167,25 +9136,25 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9196,14 +9165,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9216,22 +9185,26 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9267,17 +9240,19 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>234</v>
+        <v>417</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9295,7 +9270,7 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9306,23 +9281,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9334,18 +9307,18 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>477</v>
+        <v>213</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9369,10 +9342,10 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9393,25 +9366,25 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9422,45 +9395,43 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>458</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>169</v>
+        <v>479</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9509,258 +9480,30 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
     </row>
